--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos" sheetId="15" r:id="rId1"/>
@@ -30,15 +30,12 @@
     <sheet name="O3000" sheetId="30" r:id="rId21"/>
     <sheet name="O4000" sheetId="31" r:id="rId22"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId23"/>
-  </externalReferences>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="139">
   <si>
     <t>937.841000000</t>
   </si>
@@ -453,6 +450,9 @@
   <si>
     <t>OpemMP</t>
   </si>
+  <si>
+    <t>THREAD</t>
+  </si>
 </sst>
 </file>
 
@@ -733,11 +733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128800640"/>
-        <c:axId val="134426624"/>
+        <c:axId val="186156544"/>
+        <c:axId val="186158080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128800640"/>
+        <c:axId val="186156544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134426624"/>
+        <c:crossAx val="186158080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -755,7 +755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134426624"/>
+        <c:axId val="186158080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128800640"/>
+        <c:crossAx val="186156544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -949,11 +949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253215104"/>
-        <c:axId val="253216640"/>
+        <c:axId val="187094912"/>
+        <c:axId val="187096448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253215104"/>
+        <c:axId val="187094912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253216640"/>
+        <c:crossAx val="187096448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -971,7 +971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253216640"/>
+        <c:axId val="187096448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253215104"/>
+        <c:crossAx val="187094912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,11 +1168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254555648"/>
-        <c:axId val="254557184"/>
+        <c:axId val="187104640"/>
+        <c:axId val="186999936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254555648"/>
+        <c:axId val="187104640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254557184"/>
+        <c:crossAx val="186999936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1190,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254557184"/>
+        <c:axId val="186999936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254555648"/>
+        <c:crossAx val="187104640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1258,7 +1258,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OpemMP - n=250</a:t>
+              <a:t>OpenMP - n=250</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1393,11 +1393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159344896"/>
-        <c:axId val="167773696"/>
+        <c:axId val="187337344"/>
+        <c:axId val="187343232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159344896"/>
+        <c:axId val="187337344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167773696"/>
+        <c:crossAx val="187343232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167773696"/>
+        <c:axId val="187343232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159344896"/>
+        <c:crossAx val="187337344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,7 +1483,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OpemMP - n=500</a:t>
+              <a:t>OpenMP - n=500</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1618,11 +1618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154796416"/>
-        <c:axId val="154797952"/>
+        <c:axId val="187389056"/>
+        <c:axId val="187390592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154796416"/>
+        <c:axId val="187389056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154797952"/>
+        <c:crossAx val="187390592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154797952"/>
+        <c:axId val="187390592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.000000000000001E-2"/>
@@ -1652,7 +1652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154796416"/>
+        <c:crossAx val="187389056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1709,7 +1709,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OpemMP - n=1000</a:t>
+              <a:t>OpenMP - n=1000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1844,11 +1844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252955264"/>
-        <c:axId val="254512512"/>
+        <c:axId val="187403648"/>
+        <c:axId val="187524224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252955264"/>
+        <c:axId val="187403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254512512"/>
+        <c:crossAx val="187524224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1866,7 +1866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254512512"/>
+        <c:axId val="187524224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -1878,7 +1878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252955264"/>
+        <c:crossAx val="187403648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1935,7 +1935,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OpemMP - n=1500</a:t>
+              <a:t>OpenMP - n=1500</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2070,11 +2070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252463744"/>
-        <c:axId val="252785024"/>
+        <c:axId val="187565952"/>
+        <c:axId val="187567488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252463744"/>
+        <c:axId val="187565952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,7 +2084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252785024"/>
+        <c:crossAx val="187567488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2092,7 +2092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252785024"/>
+        <c:axId val="187567488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -2104,7 +2104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252463744"/>
+        <c:crossAx val="187565952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2161,7 +2161,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OpemMP - n=2000</a:t>
+              <a:t>OpenMP - n=2000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2296,11 +2296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254750080"/>
-        <c:axId val="252822656"/>
+        <c:axId val="187654528"/>
+        <c:axId val="187656064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254750080"/>
+        <c:axId val="187654528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252822656"/>
+        <c:crossAx val="187656064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +2318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252822656"/>
+        <c:axId val="187656064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -2330,7 +2330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254750080"/>
+        <c:crossAx val="187654528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2387,7 +2387,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OpemMP - n=3000</a:t>
+              <a:t>OpenMP - n=3000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2522,11 +2522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253067264"/>
-        <c:axId val="253068800"/>
+        <c:axId val="187673216"/>
+        <c:axId val="187961728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253067264"/>
+        <c:axId val="187673216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253068800"/>
+        <c:crossAx val="187961728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2544,7 +2544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253068800"/>
+        <c:axId val="187961728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.6"/>
@@ -2556,7 +2556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253067264"/>
+        <c:crossAx val="187673216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2613,7 +2613,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OpemMP - n=4000</a:t>
+              <a:t>OpenMP - n=4000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2748,11 +2748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253718912"/>
-        <c:axId val="253720448"/>
+        <c:axId val="186619008"/>
+        <c:axId val="186620544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253718912"/>
+        <c:axId val="186619008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253720448"/>
+        <c:crossAx val="186620544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2770,7 +2770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253720448"/>
+        <c:axId val="186620544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4"/>
@@ -2782,7 +2782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253718912"/>
+        <c:crossAx val="186619008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2912,7 +2912,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficos!$B$23:$B$29</c:f>
+              <c:f>Graficos!$C$23:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2952,11 +2952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153161088"/>
-        <c:axId val="153179648"/>
+        <c:axId val="186178944"/>
+        <c:axId val="186651776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153161088"/>
+        <c:axId val="186178944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153179648"/>
+        <c:crossAx val="186651776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2974,7 +2974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153179648"/>
+        <c:axId val="186651776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,7 +2985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153161088"/>
+        <c:crossAx val="186178944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3106,7 +3106,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficos!$B$43:$B$49</c:f>
+              <c:f>Graficos!$C$43:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3146,11 +3146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154272128"/>
-        <c:axId val="154273664"/>
+        <c:axId val="186697984"/>
+        <c:axId val="186703872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154272128"/>
+        <c:axId val="186697984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +3160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154273664"/>
+        <c:crossAx val="186703872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3168,7 +3168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154273664"/>
+        <c:axId val="186703872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3179,7 +3179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154272128"/>
+        <c:crossAx val="186697984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3391,11 +3391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="255881216"/>
-        <c:axId val="255883520"/>
+        <c:axId val="186476416"/>
+        <c:axId val="186477952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255881216"/>
+        <c:axId val="186476416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,7 +3405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255883520"/>
+        <c:crossAx val="186477952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3413,7 +3413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255883520"/>
+        <c:axId val="186477952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,7 +3424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255881216"/>
+        <c:crossAx val="186476416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3606,11 +3606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152440192"/>
-        <c:axId val="158168576"/>
+        <c:axId val="185661696"/>
+        <c:axId val="185667584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152440192"/>
+        <c:axId val="185661696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,7 +3620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158168576"/>
+        <c:crossAx val="185667584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3628,7 +3628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158168576"/>
+        <c:axId val="185667584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,7 +3639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152440192"/>
+        <c:crossAx val="185661696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3837,11 +3837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128804352"/>
-        <c:axId val="128806272"/>
+        <c:axId val="185719424"/>
+        <c:axId val="187122048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128804352"/>
+        <c:axId val="185719424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128806272"/>
+        <c:crossAx val="187122048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3859,7 +3859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128806272"/>
+        <c:axId val="187122048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128804352"/>
+        <c:crossAx val="185719424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4068,11 +4068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133786240"/>
-        <c:axId val="154743168"/>
+        <c:axId val="187128832"/>
+        <c:axId val="187151104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133786240"/>
+        <c:axId val="187128832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154743168"/>
+        <c:crossAx val="187151104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4090,7 +4090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154743168"/>
+        <c:axId val="187151104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,7 +4101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133786240"/>
+        <c:crossAx val="187128832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4299,11 +4299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155180416"/>
-        <c:axId val="167724160"/>
+        <c:axId val="186762752"/>
+        <c:axId val="186764288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155180416"/>
+        <c:axId val="186762752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4313,7 +4313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167724160"/>
+        <c:crossAx val="186764288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4321,7 +4321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167724160"/>
+        <c:axId val="186764288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4332,7 +4332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155180416"/>
+        <c:crossAx val="186762752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4530,11 +4530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203524352"/>
-        <c:axId val="252432384"/>
+        <c:axId val="186924416"/>
+        <c:axId val="186946688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203524352"/>
+        <c:axId val="186924416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4544,7 +4544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252432384"/>
+        <c:crossAx val="186946688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4552,7 +4552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252432384"/>
+        <c:axId val="186946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4563,7 +4563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203524352"/>
+        <c:crossAx val="186924416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7172,19 +7172,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0250"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -7474,8 +7461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7604,13 +7591,13 @@
         <v>133</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7619,16 +7606,16 @@
         <v>250</v>
       </c>
       <c r="B23">
+        <f>'P250'!$B$49</f>
+        <v>5</v>
+      </c>
+      <c r="C23">
         <f>'P250'!$G$51</f>
         <v>1.93803E-2</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f>'P250'!$D$51</f>
         <v>1.7518886982657061E-4</v>
-      </c>
-      <c r="D23">
-        <f>'P250'!$B$49</f>
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7637,16 +7624,16 @@
         <v>500</v>
       </c>
       <c r="B24">
+        <f>'P500'!$B$49</f>
+        <v>5</v>
+      </c>
+      <c r="C24">
         <f>'P500'!$G$51</f>
         <v>5.69816E-2</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f>'P500'!$D$51</f>
         <v>6.4589544595941583E-4</v>
-      </c>
-      <c r="D24">
-        <f>'P500'!$B$49</f>
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7655,16 +7642,16 @@
         <v>1000</v>
       </c>
       <c r="B25">
+        <f>'P1000'!$B$49</f>
+        <v>5</v>
+      </c>
+      <c r="C25">
         <f>'P1000'!$G$51</f>
         <v>0.18876889999999999</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f>'P1000'!$D$51</f>
         <v>2.332534311025486E-3</v>
-      </c>
-      <c r="D25">
-        <f>'P1000'!$B$49</f>
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7673,16 +7660,16 @@
         <v>1500</v>
       </c>
       <c r="B26">
+        <f>'P1500'!$B$49</f>
+        <v>5</v>
+      </c>
+      <c r="C26">
         <f>'P1500'!$G$51</f>
         <v>0.39598490000000003</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f>'P1500'!$D$51</f>
         <v>4.5705208133695581E-3</v>
-      </c>
-      <c r="D26">
-        <f>'P1500'!$B$49</f>
-        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7691,16 +7678,16 @@
         <v>2000</v>
       </c>
       <c r="B27">
+        <f>'P2000'!B49</f>
+        <v>5</v>
+      </c>
+      <c r="C27">
         <f>'P2000'!$G$51</f>
         <v>0.71292049999999996</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f>'P2000'!$D$51</f>
         <v>1.0868421631318464E-2</v>
-      </c>
-      <c r="D27">
-        <f>'P2000'!B49</f>
-        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7709,16 +7696,16 @@
         <v>3000</v>
       </c>
       <c r="B28">
+        <f>'P3000'!$B$75</f>
+        <v>7</v>
+      </c>
+      <c r="C28">
         <f>'P3000'!$G$77</f>
         <v>1.7038281000000002</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f>'P3000'!$D$77</f>
         <v>1.8810684356707092E-2</v>
-      </c>
-      <c r="D28">
-        <f>'P3000'!$B$75</f>
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7727,16 +7714,16 @@
         <v>4000</v>
       </c>
       <c r="B29">
+        <f>'P4000'!$B$114</f>
+        <v>10</v>
+      </c>
+      <c r="C29">
         <f>'P4000'!$G$116</f>
         <v>2.9953612999999999</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f>'P4000'!$D$116</f>
         <v>2.1264157676974232E-2</v>
-      </c>
-      <c r="D29">
-        <f>'P4000'!$B$114</f>
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7744,13 +7731,13 @@
         <v>133</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7759,16 +7746,16 @@
         <v>250</v>
       </c>
       <c r="B43">
+        <f>'O250'!B49</f>
+        <v>5</v>
+      </c>
+      <c r="C43">
         <f>'O250'!$G$51</f>
         <v>2.4360700000000002E-2</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <f>'O250'!$D$51</f>
         <v>3.2927362819123891E-5</v>
-      </c>
-      <c r="D43">
-        <f>'O250'!B49</f>
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7777,16 +7764,16 @@
         <v>500</v>
       </c>
       <c r="B44">
+        <f>'O500'!$B$49</f>
+        <v>5</v>
+      </c>
+      <c r="C44">
         <f>'O500'!$G$51</f>
         <v>8.26408E-2</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <f>'O500'!$D$51</f>
         <v>7.8917351985760678E-5</v>
-      </c>
-      <c r="D44">
-        <f>'O500'!$B$49</f>
-        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7795,16 +7782,16 @@
         <v>1000</v>
       </c>
       <c r="B45">
+        <f>'O1000'!$B$49</f>
+        <v>5</v>
+      </c>
+      <c r="C45">
         <f>'O1000'!$G$51</f>
         <v>0.31487440000000005</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <f>'O1000'!$D$51</f>
         <v>2.2046485837379565E-4</v>
-      </c>
-      <c r="D45">
-        <f>'O1000'!$B$49</f>
-        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7813,16 +7800,16 @@
         <v>1500</v>
       </c>
       <c r="B46">
+        <f>'O1500'!$B$62</f>
+        <v>6</v>
+      </c>
+      <c r="C46">
         <f>'O1500'!$G$64</f>
         <v>0.68004949999999997</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <f>'O1500'!$D$64</f>
         <v>2.9637129959262623E-4</v>
-      </c>
-      <c r="D46">
-        <f>'O1500'!$B$62</f>
-        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7831,16 +7818,16 @@
         <v>2000</v>
       </c>
       <c r="B47">
+        <f>'O2000'!$B$10</f>
+        <v>2</v>
+      </c>
+      <c r="C47">
         <f>'O2000'!$G$12</f>
         <v>1.1732628000000001</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <f>'O2000'!$D$12</f>
         <v>3.2804270547868884E-3</v>
-      </c>
-      <c r="D47">
-        <f>'O2000'!$B$10</f>
-        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7849,16 +7836,16 @@
         <v>3000</v>
       </c>
       <c r="B48">
+        <f>'O3000'!$B$23</f>
+        <v>3</v>
+      </c>
+      <c r="C48">
         <f>'O3000'!$G$25</f>
         <v>2.6221947000000001</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <f>'O3000'!$D$25</f>
         <v>1.2551822993316767E-3</v>
-      </c>
-      <c r="D48">
-        <f>'O3000'!$B$23</f>
-        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7867,16 +7854,16 @@
         <v>4000</v>
       </c>
       <c r="B49">
+        <f>'O4000'!$B$10</f>
+        <v>2</v>
+      </c>
+      <c r="C49">
         <f>'O4000'!$G$12</f>
         <v>4.4473705999999993</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <f>'O4000'!$D$12</f>
         <v>4.0681992334037267E-3</v>
-      </c>
-      <c r="D49">
-        <f>'O4000'!$B$10</f>
-        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7896,11 +7883,11 @@
         <v>250</v>
       </c>
       <c r="B61">
-        <f>(B3/B23)</f>
+        <f>(B3/C23)</f>
         <v>49.311863077454937</v>
       </c>
       <c r="C61">
-        <f>(B3/B43)</f>
+        <f>(B3/C43)</f>
         <v>39.230346418616861</v>
       </c>
     </row>
@@ -7910,11 +7897,11 @@
         <v>500</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:B67" si="0">(B4/B24)</f>
+        <f>(B4/C24)</f>
         <v>92.503564308478516</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:C66" si="1">(B4/B44)</f>
+        <f>(B4/C44)</f>
         <v>63.782067695375645</v>
       </c>
     </row>
@@ -7924,11 +7911,11 @@
         <v>1000</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f>(B5/C25)</f>
         <v>308.81898130465351</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f>(B5/C45)</f>
         <v>185.13864385291402</v>
       </c>
     </row>
@@ -7938,11 +7925,11 @@
         <v>1500</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f>(B6/C26)</f>
         <v>491.30225192930328</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f>(B6/C46)</f>
         <v>286.07957670728382</v>
       </c>
     </row>
@@ -7952,11 +7939,11 @@
         <v>2000</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f>(B7/C27)</f>
         <v>673.23490333073607</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f>(B7/C47)</f>
         <v>409.08393575591077</v>
       </c>
     </row>
@@ -7966,11 +7953,11 @@
         <v>3000</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f>(B8/C28)</f>
         <v>948.00272879640841</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f>(B8/C48)</f>
         <v>615.98541412657107</v>
       </c>
     </row>
@@ -7987,10 +7974,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8354,7 +8341,7 @@
         <v>253154009581</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>500</v>
       </c>
@@ -8380,7 +8367,7 @@
         <v>421579986811</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>500</v>
       </c>
@@ -8406,7 +8393,7 @@
         <v>391669005156</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>500</v>
       </c>
@@ -8432,7 +8419,7 @@
         <v>449647009373</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>500</v>
       </c>
@@ -8458,7 +8445,7 @@
         <v>63190996647</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>500</v>
       </c>
@@ -8484,7 +8471,7 @@
         <v>334131002426</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>500</v>
       </c>
@@ -8510,7 +8497,7 @@
         <v>117413997650</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>500</v>
       </c>
@@ -8536,7 +8523,21 @@
         <v>259968012571</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -8551,8 +8552,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>0.29431000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>500</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>3.0735347392032011E-2</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>2.001331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>500</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>1.2561122996859088E-2</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>0.29431000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>500</v>
       </c>
@@ -8577,8 +8612,24 @@
       <c r="H27" s="5">
         <v>114915996790</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>500</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>1.8682369031314604E-3</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>9.3209799999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>500</v>
       </c>
@@ -8603,8 +8654,24 @@
       <c r="H28" s="5">
         <v>95504000783</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>500</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>6.4589544595941583E-4</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>5.69816E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>500</v>
       </c>
@@ -8629,8 +8696,24 @@
       <c r="H29" s="5">
         <v>101015001535</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>500</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>7.5165098498054523E-4</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>6.1176900000000006E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>500</v>
       </c>
@@ -8655,8 +8738,24 @@
       <c r="H30" s="5">
         <v>67533001304</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>500</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>9.4323261747390026E-4</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>6.5616199999999986E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>500</v>
       </c>
@@ -8681,8 +8780,24 @@
       <c r="H31" s="5">
         <v>64723998308</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>500</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>9.886758965628943E-4</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>6.5051800000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>500</v>
       </c>
@@ -8707,8 +8822,24 @@
       <c r="H32" s="5">
         <v>110156998038</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>500</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>5.6375964894427987E-4</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>6.5139200000000008E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>500</v>
       </c>
@@ -8733,8 +8864,24 @@
       <c r="H33" s="5">
         <v>118749000132</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>500</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>6.2472186602430431E-4</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>6.5876899999999988E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>500</v>
       </c>
@@ -8759,8 +8906,24 @@
       <c r="H34" s="5">
         <v>88096000254</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>500</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>4.9800251728502568E-4</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>6.9544499999999995E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>500</v>
       </c>
@@ -8785,8 +8948,24 @@
       <c r="H35" s="5">
         <v>90939000249</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>500</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>5.6559746816972232E-4</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>6.75954E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>500</v>
       </c>
@@ -8811,8 +8990,24 @@
       <c r="H36" s="5">
         <v>80464996397</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>500</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>1.8278393497363086E-3</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>0.1362438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -8828,7 +9023,7 @@
         <v>9.3209799999999995E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>500</v>
       </c>
@@ -8854,7 +9049,7 @@
         <v>51865998656</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>500</v>
       </c>
@@ -8880,7 +9075,7 @@
         <v>70419996977</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>500</v>
       </c>
@@ -8906,7 +9101,7 @@
         <v>61464998871</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>500</v>
       </c>
@@ -8932,7 +9127,7 @@
         <v>47906998545</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>500</v>
       </c>
@@ -8958,7 +9153,7 @@
         <v>55918000638</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>500</v>
       </c>
@@ -8984,7 +9179,7 @@
         <v>62856003642</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>500</v>
       </c>
@@ -9010,7 +9205,7 @@
         <v>55805001408</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>500</v>
       </c>
@@ -9036,7 +9231,7 @@
         <v>52618000656</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>500</v>
       </c>
@@ -11325,10 +11520,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11692,7 +11887,7 @@
         <v>2097800970078</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -11718,7 +11913,7 @@
         <v>5198830127716</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -11744,7 +11939,7 @@
         <v>4173154830933</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1000</v>
       </c>
@@ -11770,7 +11965,7 @@
         <v>4768689155579</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -11796,7 +11991,7 @@
         <v>3673247098923</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -11822,7 +12017,7 @@
         <v>4760632991791</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1000</v>
       </c>
@@ -11848,7 +12043,7 @@
         <v>3205009937286</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -11874,7 +12069,21 @@
         <v>1075863957405</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -11889,8 +12098,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>4.0049701000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>0.15114429311803526</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>10.7570312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>1000</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>0.15401343992848626</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>4.0049701000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1000</v>
       </c>
@@ -11915,8 +12158,24 @@
       <c r="H27" s="5">
         <v>1262454032898</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>1000</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>4.7888412529203998E-2</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>1.1855495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1000</v>
       </c>
@@ -11941,8 +12200,24 @@
       <c r="H28" s="5">
         <v>1594673037529</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>1000</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>2.332534311025486E-3</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>0.18876889999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1000</v>
       </c>
@@ -11967,8 +12242,24 @@
       <c r="H29" s="5">
         <v>793479025364</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>1000</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>2.5254590570824888E-3</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>0.20182729999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1000</v>
       </c>
@@ -11993,8 +12284,24 @@
       <c r="H30" s="5">
         <v>1244503974915</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>1.9794717071874397E-3</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>0.2424278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -12019,8 +12326,24 @@
       <c r="H31" s="5">
         <v>1277699947357</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>1000</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>2.0889937907465827E-3</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>0.26304500000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1000</v>
       </c>
@@ -12045,8 +12368,24 @@
       <c r="H32" s="5">
         <v>406244993210</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>2.3505429945723895E-3</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>0.23416239999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -12071,8 +12410,24 @@
       <c r="H33" s="5">
         <v>1781792998314</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>1.9656046258085579E-3</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>0.26299050000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -12097,8 +12452,24 @@
       <c r="H34" s="5">
         <v>555732011795</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>1000</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>1.9659480801610426E-3</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>0.25432749999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -12123,8 +12494,24 @@
       <c r="H35" s="5">
         <v>1789057016373</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>1000</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>1.9917569490276671E-3</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>0.25007579999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>1000</v>
       </c>
@@ -12149,8 +12536,24 @@
       <c r="H36" s="5">
         <v>1149857997894</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>1000</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>2.7329764028944299E-3</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>0.29925209999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -12166,7 +12569,7 @@
         <v>1.1855495</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>1000</v>
       </c>
@@ -12192,7 +12595,7 @@
         <v>219730004668</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>1000</v>
       </c>
@@ -12218,7 +12621,7 @@
         <v>192670002580</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -12244,7 +12647,7 @@
         <v>182304993272</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>1000</v>
       </c>
@@ -12270,7 +12673,7 @@
         <v>221496000886</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1000</v>
       </c>
@@ -12296,7 +12699,7 @@
         <v>197403997183</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>1000</v>
       </c>
@@ -12322,7 +12725,7 @@
         <v>148958995938</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>1000</v>
       </c>
@@ -12348,7 +12751,7 @@
         <v>157423004508</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>1000</v>
       </c>
@@ -12374,7 +12777,7 @@
         <v>189413994551</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>1000</v>
       </c>
@@ -14663,10 +15066,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15030,7 +15433,7 @@
         <v>19280660629272</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -15056,7 +15459,7 @@
         <v>14858652114868</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1500</v>
       </c>
@@ -15082,7 +15485,7 @@
         <v>14595525741577</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1500</v>
       </c>
@@ -15108,7 +15511,7 @@
         <v>12446892738342</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1500</v>
       </c>
@@ -15134,7 +15537,7 @@
         <v>14217808723450</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -15160,7 +15563,7 @@
         <v>15835930824280</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1500</v>
       </c>
@@ -15186,7 +15589,7 @@
         <v>13836900711060</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1500</v>
       </c>
@@ -15212,7 +15615,21 @@
         <v>18989255905151</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -15227,8 +15644,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>15.198965699999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>1500</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>0.35675684078686487</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>21.7196997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>1500</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>0.23529501798828825</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>15.198965699999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1500</v>
       </c>
@@ -15253,8 +15704,24 @@
       <c r="H27" s="5">
         <v>11267281532288</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>1500</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>0.38530152747949431</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>6.7724884000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1500</v>
       </c>
@@ -15279,8 +15746,24 @@
       <c r="H28" s="5">
         <v>2980479955673</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>1500</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>4.5705208133695581E-3</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>0.39598490000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1500</v>
       </c>
@@ -15305,8 +15788,24 @@
       <c r="H29" s="5">
         <v>3685053110123</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>1500</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>5.3803962923128111E-3</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>0.45234469999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1500</v>
       </c>
@@ -15331,8 +15830,24 @@
       <c r="H30" s="5">
         <v>4423210144043</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>1500</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>3.7142762935133884E-3</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>0.50430170000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1500</v>
       </c>
@@ -15357,8 +15872,24 @@
       <c r="H31" s="5">
         <v>4161958217621</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>1500</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>6.4165791374203342E-3</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>0.56041269999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1500</v>
       </c>
@@ -15383,8 +15914,24 @@
       <c r="H32" s="5">
         <v>8593189239502</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>1500</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>4.8417768417068638E-3</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>0.56347840000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1500</v>
       </c>
@@ -15409,8 +15956,24 @@
       <c r="H33" s="5">
         <v>11355064392090</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>1500</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>4.278872033621841E-3</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>0.55975069999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>1500</v>
       </c>
@@ -15435,8 +15998,24 @@
       <c r="H34" s="5">
         <v>1355816006660</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>1500</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>5.3617653995779325E-3</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>0.58811930000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1500</v>
       </c>
@@ -15461,8 +16040,24 @@
       <c r="H35" s="5">
         <v>8667601585388</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>1500</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>4.1378420466201679E-3</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>0.58210050000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>1500</v>
       </c>
@@ -15487,8 +16082,24 @@
       <c r="H36" s="5">
         <v>11235230445862</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>1500</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>3.7725266237776385E-3</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>0.57198340000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -15504,7 +16115,7 @@
         <v>6.7724884000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>1500</v>
       </c>
@@ -15530,7 +16141,7 @@
         <v>433185011148</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>1500</v>
       </c>
@@ -15556,7 +16167,7 @@
         <v>349586993456</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>1500</v>
       </c>
@@ -15582,7 +16193,7 @@
         <v>323235005140</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>1500</v>
       </c>
@@ -15608,7 +16219,7 @@
         <v>457607001066</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1500</v>
       </c>
@@ -15634,7 +16245,7 @@
         <v>446166008711</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>1500</v>
       </c>
@@ -15660,7 +16271,7 @@
         <v>387643992901</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>1500</v>
       </c>
@@ -15686,7 +16297,7 @@
         <v>392522007227</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>1500</v>
       </c>
@@ -15712,7 +16323,7 @@
         <v>352113008499</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>1500</v>
       </c>
@@ -18001,10 +18612,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18373,7 +18984,7 @@
         <v>30579795837402</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -18399,7 +19010,7 @@
         <v>37130249023438</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -18425,7 +19036,7 @@
         <v>37239494323730</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -18451,7 +19062,7 @@
         <v>16570844650269</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -18477,7 +19088,7 @@
         <v>39250167846680</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -18503,7 +19114,7 @@
         <v>39845111846924</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -18529,7 +19140,7 @@
         <v>43765094757080</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -18555,7 +19166,21 @@
         <v>45778667449951</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -18570,8 +19195,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>36.175870799999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>2000</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>0.27610520745411543</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>31.9962087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>2000</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>0.81363920903942033</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>36.175870799999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2000</v>
       </c>
@@ -18596,8 +19255,24 @@
       <c r="H27" s="5">
         <v>10481152534485</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>0.67648127358913113</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>13.911100199999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>2000</v>
       </c>
@@ -18622,8 +19297,24 @@
       <c r="H28" s="5">
         <v>12737982749939</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>2000</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>1.0868421631318464E-2</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>0.71292049999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>2000</v>
       </c>
@@ -18648,8 +19339,24 @@
       <c r="H29" s="5">
         <v>22656227111816</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>2000</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>6.7554623185817403E-3</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>0.74474200000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -18674,8 +19381,24 @@
       <c r="H30" s="5">
         <v>6845961093903</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>2000</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>7.0428749106533966E-3</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>0.8955244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>2000</v>
       </c>
@@ -18700,8 +19423,24 @@
       <c r="H31" s="5">
         <v>15112945556641</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>9.7526134058517899E-3</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>0.92080119999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -18726,8 +19465,24 @@
       <c r="H32" s="5">
         <v>24601112365723</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>2000</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>9.3071433532409837E-3</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>0.93602799999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>2000</v>
       </c>
@@ -18752,8 +19507,24 @@
       <c r="H33" s="5">
         <v>7180478096008</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>2000</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>8.5895656791248765E-3</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>0.91637740000000012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>2000</v>
       </c>
@@ -18778,8 +19549,24 @@
       <c r="H34" s="5">
         <v>8395359039307</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>2000</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>6.4162239445192549E-3</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>0.97715680000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -18804,8 +19591,24 @@
       <c r="H35" s="5">
         <v>9405246734619</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>2000</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>7.3357148558420831E-3</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>1.0605202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>2000</v>
       </c>
@@ -18830,8 +19633,24 @@
       <c r="H36" s="5">
         <v>21694536209106</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>2000</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>6.4447567168030313E-3</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>1.1164191000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -18847,7 +19666,7 @@
         <v>13.911100199999998</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>2000</v>
       </c>
@@ -18873,7 +19692,7 @@
         <v>547181010246</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -18899,7 +19718,7 @@
         <v>677545011044</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>2000</v>
       </c>
@@ -18925,7 +19744,7 @@
         <v>640577971935</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>2000</v>
       </c>
@@ -18951,7 +19770,7 @@
         <v>670671999454</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>2000</v>
       </c>
@@ -18977,7 +19796,7 @@
         <v>593912005424</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>2000</v>
       </c>
@@ -19003,7 +19822,7 @@
         <v>901988029480</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>2000</v>
       </c>
@@ -19029,7 +19848,7 @@
         <v>753247976303</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>2000</v>
       </c>
@@ -19055,7 +19874,7 @@
         <v>807132005692</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>2000</v>
       </c>
@@ -21344,10 +22163,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21716,7 +22535,7 @@
         <v>99916030883789</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>3000</v>
       </c>
@@ -21742,7 +22561,7 @@
         <v>88563987731934</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -21768,7 +22587,7 @@
         <v>85394264221191</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>3000</v>
       </c>
@@ -21794,7 +22613,7 @@
         <v>75514366149902</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>3000</v>
       </c>
@@ -21820,7 +22639,7 @@
         <v>100570182800293</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>3000</v>
       </c>
@@ -21846,7 +22665,7 @@
         <v>96495513916016</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -21872,7 +22691,7 @@
         <v>69081512451172</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -21898,7 +22717,21 @@
         <v>89887245178223</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -21913,8 +22746,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>86.575995599999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>3000</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>2.5343117925317418</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>384.02939679999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>3000</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>1.1080384481709808</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>86.575995599999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>3000</v>
       </c>
@@ -21939,8 +22806,24 @@
       <c r="H27" s="5">
         <v>66050765991211</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>3000</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>1.4257580756446633</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>76.325522500000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>3000</v>
       </c>
@@ -21965,8 +22848,24 @@
       <c r="H28" s="5">
         <v>101270729064941</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>3000</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>2.6958125636518823E-2</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>3.5252359000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>3000</v>
       </c>
@@ -21991,8 +22890,24 @@
       <c r="H29" s="5">
         <v>80026077270508</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>3000</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>1.3318767105358431E-2</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>1.7827782999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -22017,8 +22932,24 @@
       <c r="H30" s="5">
         <v>82644401550293</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>3000</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>1.8810684356707092E-2</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>1.7038281000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -22043,8 +22974,24 @@
       <c r="H31" s="5">
         <v>78049926757812</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>3000</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>1.2875233470077347E-2</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>1.7294243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -22069,8 +23016,24 @@
       <c r="H32" s="5">
         <v>72433181762695</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>3000</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>1.1639586296108447E-2</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>1.8574676999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>3000</v>
       </c>
@@ -22095,8 +23058,24 @@
       <c r="H33" s="5">
         <v>75359947204590</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>3000</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>1.3544455709075616E-2</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>1.8728928</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>3000</v>
       </c>
@@ -22121,8 +23100,24 @@
       <c r="H34" s="5">
         <v>87298652648926</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>3000</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>2.1190148367117266E-2</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>1.8790246000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>3000</v>
       </c>
@@ -22147,8 +23142,24 @@
       <c r="H35" s="5">
         <v>73835777282715</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>3000</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>1.0125949656622061E-2</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>2.0332111999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>3000</v>
       </c>
@@ -22173,8 +23184,24 @@
       <c r="H36" s="5">
         <v>46285770416260</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>3000</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>1.5153725768990864E-2</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>2.3587592000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -22190,7 +23217,7 @@
         <v>76.325522500000005</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>3000</v>
       </c>
@@ -22216,7 +23243,7 @@
         <v>3479171991348</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>3000</v>
       </c>
@@ -22242,7 +23269,7 @@
         <v>3690938949585</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>3000</v>
       </c>
@@ -22268,7 +23295,7 @@
         <v>2967591047287</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>3000</v>
       </c>
@@ -22294,7 +23321,7 @@
         <v>3368942975998</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>3000</v>
       </c>
@@ -22320,7 +23347,7 @@
         <v>3546256065369</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>3000</v>
       </c>
@@ -22346,7 +23373,7 @@
         <v>3555619001389</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>3000</v>
       </c>
@@ -22372,7 +23399,7 @@
         <v>3348588943481</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>3000</v>
       </c>
@@ -22398,7 +23425,7 @@
         <v>4000125885010</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>3000</v>
       </c>
@@ -24687,10 +25714,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -25054,7 +26081,7 @@
         <v>296791870117188</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>4000</v>
       </c>
@@ -25080,7 +26107,7 @@
         <v>231855712890625</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>4000</v>
       </c>
@@ -25106,7 +26133,7 @@
         <v>317424591064453</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>4000</v>
       </c>
@@ -25132,7 +26159,7 @@
         <v>334219421386719</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>4000</v>
       </c>
@@ -25158,7 +26185,7 @@
         <v>287785430908203</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>4000</v>
       </c>
@@ -25184,7 +26211,7 @@
         <v>304495391845703</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>4000</v>
       </c>
@@ -25210,7 +26237,7 @@
         <v>265883178710938</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -25236,7 +26263,21 @@
         <v>233100921630859</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -25251,8 +26292,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>284.26787400000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>4000</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>6.7023104210860254</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>1258.0590459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>4000</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>3.7276805698962376</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>284.26787400000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>4000</v>
       </c>
@@ -25277,8 +26352,24 @@
       <c r="H27" s="5">
         <v>166297714233398</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>4000</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>3.6331834925812667</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>181.78803120000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>4000</v>
       </c>
@@ -25303,8 +26394,24 @@
       <c r="H28" s="5">
         <v>114230186462402</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>4000</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>0.11213989943060708</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>13.462303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>4000</v>
       </c>
@@ -25329,8 +26436,24 @@
       <c r="H29" s="5">
         <v>211863037109375</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>4000</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>3.7009648203024929E-2</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>7.3738155000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>4000</v>
       </c>
@@ -25355,8 +26478,24 @@
       <c r="H30" s="5">
         <v>222557449340820</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>4000</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>4.6051486266646284E-2</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>4.4916315999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>4000</v>
       </c>
@@ -25381,8 +26520,24 @@
       <c r="H31" s="5">
         <v>175898864746094</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>4000</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>3.1419667960691615E-2</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>3.0813352999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>4000</v>
       </c>
@@ -25407,8 +26562,24 @@
       <c r="H32" s="5">
         <v>191886520385742</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>4000</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>2.8077313264446953E-2</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>3.0283891000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>4000</v>
       </c>
@@ -25433,8 +26604,24 @@
       <c r="H33" s="5">
         <v>228514801025391</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>4000</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>2.1264157676974232E-2</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>2.9953612999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>4000</v>
       </c>
@@ -25459,8 +26646,24 @@
       <c r="H34" s="5">
         <v>186152130126953</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>4000</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>1.5352764064670716E-2</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>3.3155478999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>4000</v>
       </c>
@@ -25485,8 +26688,24 @@
       <c r="H35" s="5">
         <v>135323898315430</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>4000</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>3.5937810838762477E-2</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>3.2145234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>4000</v>
       </c>
@@ -25511,8 +26730,24 @@
       <c r="H36" s="5">
         <v>185155700683594</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>4000</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>2.1273221332320333E-2</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>3.9147345000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
@@ -25528,7 +26763,7 @@
         <v>181.78803120000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>4000</v>
       </c>
@@ -25554,7 +26789,7 @@
         <v>14188114166260</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -25580,7 +26815,7 @@
         <v>15195300102234</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -25606,7 +26841,7 @@
         <v>11486786842346</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>4000</v>
       </c>
@@ -25632,7 +26867,7 @@
         <v>12789611816406</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -25658,7 +26893,7 @@
         <v>14867501258850</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>4000</v>
       </c>
@@ -25684,7 +26919,7 @@
         <v>12457904815674</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>4000</v>
       </c>
@@ -25710,7 +26945,7 @@
         <v>13133176803589</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>4000</v>
       </c>
@@ -25736,7 +26971,7 @@
         <v>13734257698059</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>4000</v>
       </c>
@@ -28025,15 +29260,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28390,7 +29626,7 @@
         <v>81450998783</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>250</v>
       </c>
@@ -28416,7 +29652,7 @@
         <v>64521998167</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>250</v>
       </c>
@@ -28442,7 +29678,7 @@
         <v>63322998583</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>250</v>
       </c>
@@ -28468,7 +29704,7 @@
         <v>61726000160</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>250</v>
       </c>
@@ -28494,7 +29730,7 @@
         <v>70851996541</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>250</v>
       </c>
@@ -28520,7 +29756,7 @@
         <v>70095002651</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>250</v>
       </c>
@@ -28546,7 +29782,7 @@
         <v>69138996303</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>250</v>
       </c>
@@ -28572,7 +29808,21 @@
         <v>69044001400</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -28587,8 +29837,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>7.019439999999999E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>250</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>2.1646016851965062E-4</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>3.8375699999999992E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>250</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>6.2830272463023566E-4</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>7.019439999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>250</v>
       </c>
@@ -28613,8 +29897,24 @@
       <c r="H27" s="5">
         <v>135469004512</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>250</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>8.0240469022114323E-3</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>0.19019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>250</v>
       </c>
@@ -28639,8 +29939,24 @@
       <c r="H28" s="5">
         <v>153962001204</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>250</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>3.2927362819123891E-5</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>2.4360700000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>250</v>
       </c>
@@ -28665,8 +29981,24 @@
       <c r="H29" s="5">
         <v>135076999664</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>250</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>1.3119178327928926E-4</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>2.4721199999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>250</v>
       </c>
@@ -28691,8 +30023,24 @@
       <c r="H30" s="5">
         <v>348789006472</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>250</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>1.0174449261644474E-4</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>2.6026199999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>250</v>
       </c>
@@ -28717,8 +30065,24 @@
       <c r="H31" s="5">
         <v>160541996360</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>250</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>5.8818656337367429E-5</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>2.6460900000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>250</v>
       </c>
@@ -28743,8 +30107,24 @@
       <c r="H32" s="5">
         <v>128381997347</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>250</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>7.3506020917412683E-5</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>2.6851200000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>250</v>
       </c>
@@ -28769,8 +30149,24 @@
       <c r="H33" s="5">
         <v>224398002028</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>250</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>5.4078877577109533E-5</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>2.70525E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>250</v>
       </c>
@@ -28795,8 +30191,24 @@
       <c r="H34" s="5">
         <v>158133998513</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>250</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>8.2035794355607696E-5</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>2.9713400000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>250</v>
       </c>
@@ -28821,8 +30233,24 @@
       <c r="H35" s="5">
         <v>140240997076</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>250</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>3.2733844938296578E-4</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>3.2597599999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>250</v>
       </c>
@@ -28847,8 +30275,24 @@
       <c r="H36" s="5">
         <v>316906005144</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>250</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>2.0963342078760032E-4</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>4.7058999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
@@ -28864,7 +30308,7 @@
         <v>0.19019</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>250</v>
       </c>
@@ -28890,7 +30334,7 @@
         <v>24444999173</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>250</v>
       </c>
@@ -28916,7 +30360,7 @@
         <v>24732999504</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>250</v>
       </c>
@@ -28942,7 +30386,7 @@
         <v>24658000097</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>250</v>
       </c>
@@ -28968,7 +30412,7 @@
         <v>24730000645</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>250</v>
       </c>
@@ -28994,7 +30438,7 @@
         <v>24005999789</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>250</v>
       </c>
@@ -29020,7 +30464,7 @@
         <v>24049000815</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>250</v>
       </c>
@@ -29046,7 +30490,7 @@
         <v>24336999282</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>250</v>
       </c>
@@ -29072,7 +30516,7 @@
         <v>23755000904</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>250</v>
       </c>
@@ -31356,10 +32800,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31718,7 +33162,7 @@
         <v>249484002590</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>500</v>
       </c>
@@ -31744,7 +33188,7 @@
         <v>264371991158</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>500</v>
       </c>
@@ -31770,7 +33214,7 @@
         <v>253280997276</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>500</v>
       </c>
@@ -31796,7 +33240,7 @@
         <v>255885004997</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>500</v>
       </c>
@@ -31822,7 +33266,7 @@
         <v>249038994312</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>500</v>
       </c>
@@ -31848,7 +33292,7 @@
         <v>251702010632</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>500</v>
       </c>
@@ -31874,7 +33318,7 @@
         <v>256518989801</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>500</v>
       </c>
@@ -31900,7 +33344,21 @@
         <v>253488987684</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -31915,8 +33373,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>0.24889829999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>500</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>1.4121703745181269E-4</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>0.14364949999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>500</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>1.2301412511938978E-3</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>0.24889829999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>500</v>
       </c>
@@ -31941,8 +33433,24 @@
       <c r="H27" s="5">
         <v>414234995842</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>500</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>5.5629542121670079E-4</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>0.4114003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>500</v>
       </c>
@@ -31967,8 +33475,24 @@
       <c r="H28" s="5">
         <v>410322010517</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>500</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>7.8917351985760678E-5</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>8.26408E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>500</v>
       </c>
@@ -31993,8 +33517,24 @@
       <c r="H29" s="5">
         <v>405844002962</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>500</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>9.4768182658761812E-5</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>8.3100199999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>500</v>
       </c>
@@ -32019,8 +33559,24 @@
       <c r="H30" s="5">
         <v>411173999310</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>500</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>1.0746104410436371E-4</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>8.7060399999999982E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>500</v>
       </c>
@@ -32045,8 +33601,24 @@
       <c r="H31" s="5">
         <v>423637002707</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>500</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>7.138356564675405E-5</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>8.9121300000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>500</v>
       </c>
@@ -32071,8 +33643,24 @@
       <c r="H32" s="5">
         <v>415181994438</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>500</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>1.4267899635195082E-4</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>9.0414400000000006E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>500</v>
       </c>
@@ -32097,8 +33685,24 @@
       <c r="H33" s="5">
         <v>411356985569</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>500</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>1.1770228986727519E-3</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>9.6005199999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>500</v>
       </c>
@@ -32123,8 +33727,24 @@
       <c r="H34" s="5">
         <v>405492991209</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>500</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>1.525075987177907E-4</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>9.7035899999999994E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>500</v>
       </c>
@@ -32149,8 +33769,24 @@
       <c r="H35" s="5">
         <v>405122995377</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>500</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>1.0633371786764326E-4</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>9.8833199999999996E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>500</v>
       </c>
@@ -32175,8 +33811,24 @@
       <c r="H36" s="5">
         <v>411635994911</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>500</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>1.2369390041550151E-4</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>0.11608789999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
@@ -32192,7 +33844,7 @@
         <v>0.4114003</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>500</v>
       </c>
@@ -32218,7 +33870,7 @@
         <v>83114996552</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>500</v>
       </c>
@@ -32244,7 +33896,7 @@
         <v>82287997007</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>500</v>
       </c>
@@ -32270,7 +33922,7 @@
         <v>82896001637</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>500</v>
       </c>
@@ -32296,7 +33948,7 @@
         <v>82149997354</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>500</v>
       </c>
@@ -32322,7 +33974,7 @@
         <v>83145998418</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>500</v>
       </c>
@@ -32348,7 +34000,7 @@
         <v>82636997104</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>500</v>
       </c>
@@ -32374,7 +34026,7 @@
         <v>83792001009</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>500</v>
       </c>
@@ -32400,7 +34052,7 @@
         <v>82027003169</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>500</v>
       </c>
@@ -34684,10 +36336,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -35046,7 +36698,7 @@
         <v>459868997335</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -35072,7 +36724,7 @@
         <v>462738990784</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -35098,7 +36750,7 @@
         <v>466639995575</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1000</v>
       </c>
@@ -35124,7 +36776,7 @@
         <v>463306993246</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -35150,7 +36802,7 @@
         <v>468800991774</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1000</v>
       </c>
@@ -35176,7 +36828,7 @@
         <v>463167011738</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1000</v>
       </c>
@@ -35202,7 +36854,7 @@
         <v>465997010469</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -35228,7 +36880,21 @@
         <v>461477994919</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -35243,8 +36909,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>0.4631207</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>1.9306309532838683E-4</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>0.35018609999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>1000</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>3.4220004237287872E-4</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>0.4631207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1000</v>
       </c>
@@ -35269,8 +36969,24 @@
       <c r="H27" s="5">
         <v>631748974323</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>1000</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>6.8630901600113365E-4</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>0.63081790000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1000</v>
       </c>
@@ -35295,8 +37011,24 @@
       <c r="H28" s="5">
         <v>632430970669</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>1000</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>2.2046485837379565E-4</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>0.31487440000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1000</v>
       </c>
@@ -35321,8 +37053,24 @@
       <c r="H29" s="5">
         <v>624060988426</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>1000</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>2.0047659990909443E-4</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>0.32284540000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1000</v>
       </c>
@@ -35347,8 +37095,24 @@
       <c r="H30" s="5">
         <v>626264989376</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>2.20982622745671E-4</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>0.32275079999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -35373,8 +37137,24 @@
       <c r="H31" s="5">
         <v>623674988747</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>1000</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>7.8203246316533724E-4</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>0.33859729999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1000</v>
       </c>
@@ -35399,8 +37179,24 @@
       <c r="H32" s="5">
         <v>645705997944</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>7.0927414297215774E-4</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>0.34055209999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -35425,8 +37221,24 @@
       <c r="H33" s="5">
         <v>627565979958</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>2.8292736818248367E-4</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>0.33880629999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -35451,8 +37263,24 @@
       <c r="H34" s="5">
         <v>637158989906</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>1000</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>2.6608552092221113E-4</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>0.35720400000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -35477,8 +37305,24 @@
       <c r="H35" s="5">
         <v>626011013985</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>1000</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>2.7432265856104556E-4</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>0.36443710000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>1000</v>
       </c>
@@ -35503,8 +37347,24 @@
       <c r="H36" s="5">
         <v>633556008339</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>1000</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>2.9201140084288184E-4</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>0.39439740000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
@@ -35520,7 +37380,7 @@
         <v>0.63081790000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>1000</v>
       </c>
@@ -35546,7 +37406,7 @@
         <v>316287994385</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>1000</v>
       </c>
@@ -35572,7 +37432,7 @@
         <v>313212007284</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -35598,7 +37458,7 @@
         <v>318001002073</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>1000</v>
       </c>
@@ -35624,7 +37484,7 @@
         <v>312893003225</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1000</v>
       </c>
@@ -35650,7 +37510,7 @@
         <v>313136011362</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>1000</v>
       </c>
@@ -35676,7 +37536,7 @@
         <v>312368005514</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>1000</v>
       </c>
@@ -35702,7 +37562,7 @@
         <v>318700999022</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>1000</v>
       </c>
@@ -35728,7 +37588,7 @@
         <v>314227014780</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>1000</v>
       </c>
@@ -38012,10 +39872,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -38374,7 +40234,7 @@
         <v>810109019279</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1500</v>
       </c>
@@ -38400,7 +40260,7 @@
         <v>793977975845</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1500</v>
       </c>
@@ -38426,7 +40286,7 @@
         <v>794632971287</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1500</v>
       </c>
@@ -38452,7 +40312,7 @@
         <v>875042974949</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1500</v>
       </c>
@@ -38478,7 +40338,7 @@
         <v>808302998543</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1500</v>
       </c>
@@ -38504,7 +40364,7 @@
         <v>805459976196</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1500</v>
       </c>
@@ -38530,7 +40390,7 @@
         <v>805962979794</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>1500</v>
       </c>
@@ -38556,7 +40416,21 @@
         <v>798301994801</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -38571,8 +40445,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>0.81010950000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>1500</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>4.8979132109728347E-4</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>0.68875240000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>1500</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>2.3997172223456293E-3</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>0.81010950000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>1500</v>
       </c>
@@ -38597,8 +40505,24 @@
       <c r="H27" s="5">
         <v>987843990326</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>1500</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>2.543567420856865E-3</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>1.0170669999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>1500</v>
       </c>
@@ -38623,8 +40547,24 @@
       <c r="H28" s="5">
         <v>1036170959473</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>1500</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>2.6257169793326084E-4</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>0.68020590000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1500</v>
       </c>
@@ -38649,8 +40589,24 @@
       <c r="H29" s="5">
         <v>1016819953918</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>1500</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>2.9637129959262623E-4</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>0.68004949999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1500</v>
       </c>
@@ -38675,8 +40631,24 @@
       <c r="H30" s="5">
         <v>1014145970345</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>1500</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>4.5646586205566592E-4</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>0.70882909999999988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1500</v>
       </c>
@@ -38701,8 +40673,24 @@
       <c r="H31" s="5">
         <v>1018002033234</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>1500</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>5.4611962914121056E-4</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>0.72579340000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1500</v>
       </c>
@@ -38727,8 +40715,24 @@
       <c r="H32" s="5">
         <v>1046563982964</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>1500</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>1.9481796394754431E-3</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>0.75117809999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>1500</v>
       </c>
@@ -38753,8 +40757,24 @@
       <c r="H33" s="5">
         <v>1063029050827</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>1500</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>5.5194385594108315E-4</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>0.74299729999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>1500</v>
       </c>
@@ -38779,8 +40799,24 @@
       <c r="H34" s="5">
         <v>994557023048</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>1500</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>7.4686791365303974E-4</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>0.76315339999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>1500</v>
       </c>
@@ -38805,8 +40841,24 @@
       <c r="H35" s="5">
         <v>984915018082</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>1500</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>1.1868507625102304E-2</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>0.8328276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>1500</v>
       </c>
@@ -38831,8 +40883,24 @@
       <c r="H36" s="5">
         <v>1008622050285</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>1500</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>5.6025673440347366E-4</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>0.81623480000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
@@ -38848,7 +40916,7 @@
         <v>1.0170669999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>1500</v>
       </c>
@@ -38874,7 +40942,7 @@
         <v>679212987423</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>1500</v>
       </c>
@@ -38900,7 +40968,7 @@
         <v>679718017578</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>1500</v>
       </c>
@@ -38926,7 +40994,7 @@
         <v>676316976547</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>1500</v>
       </c>
@@ -38952,7 +41020,7 @@
         <v>683225989342</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>1500</v>
       </c>
@@ -38978,7 +41046,7 @@
         <v>682740986347</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>1500</v>
       </c>
@@ -39004,7 +41072,7 @@
         <v>680507004261</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>1500</v>
       </c>
@@ -39030,7 +41098,7 @@
         <v>681340992451</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>1500</v>
       </c>
@@ -39056,7 +41124,7 @@
         <v>681064009666</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>1500</v>
       </c>
@@ -41343,7 +43411,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -41702,10 +43770,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -42064,7 +44132,7 @@
         <v>1271718025208</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -42090,7 +44158,7 @@
         <v>1262501955032</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -42116,7 +44184,7 @@
         <v>1273316979408</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>2000</v>
       </c>
@@ -42142,7 +44210,7 @@
         <v>1259050965309</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -42168,7 +44236,7 @@
         <v>1277691006660</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -42194,7 +44262,7 @@
         <v>1259073972702</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -42220,7 +44288,7 @@
         <v>1273046970367</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -42246,7 +44314,21 @@
         <v>1280660033226</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -42261,8 +44343,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>1.2708791000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>2000</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>3.2804270547868884E-3</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>1.1732628000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>2000</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>8.5379953469444131E-4</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>1.2708791000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2000</v>
       </c>
@@ -42287,8 +44403,24 @@
       <c r="H27" s="5">
         <v>1532333970070</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>2000</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>7.1010825955937495E-3</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>1.5736234999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>2000</v>
       </c>
@@ -42313,8 +44445,24 @@
       <c r="H28" s="5">
         <v>1496049046516</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>2000</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>1.1387127459450772E-3</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>1.2264860000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>2000</v>
       </c>
@@ -42339,8 +44487,24 @@
       <c r="H29" s="5">
         <v>1575803995132</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>2000</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>1.8626818212041596E-2</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>1.264386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -42365,8 +44529,24 @@
       <c r="H30" s="5">
         <v>1532160043716</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>2000</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>4.6556170458203865E-3</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>1.2793232000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>2000</v>
       </c>
@@ -42391,8 +44571,24 @@
       <c r="H31" s="5">
         <v>1620813012123</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>4.4129680005008465E-3</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>1.2993697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>2000</v>
       </c>
@@ -42417,8 +44613,24 @@
       <c r="H32" s="5">
         <v>1597071051598</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>2000</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>8.2972740878489064E-4</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>1.3053968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>2000</v>
       </c>
@@ -42443,8 +44655,24 @@
       <c r="H33" s="5">
         <v>1735314965248</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>2000</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>8.016100995288587E-4</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>1.3088044999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>2000</v>
       </c>
@@ -42469,8 +44697,24 @@
       <c r="H34" s="5">
         <v>1511790037155</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>2000</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>7.7574148965862185E-4</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>1.3321501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -42495,8 +44739,24 @@
       <c r="H35" s="5">
         <v>1527979016304</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>2000</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>9.3498208325079688E-4</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>1.3995464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>2000</v>
       </c>
@@ -42521,8 +44781,24 @@
       <c r="H36" s="5">
         <v>1606920003891</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>2000</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>9.6096494380503935E-4</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>1.4036731000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
@@ -42538,7 +44814,7 @@
         <v>1.5736234999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>2000</v>
       </c>
@@ -42564,7 +44840,7 @@
         <v>1220440030098</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -42590,7 +44866,7 @@
         <v>1231256961823</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>2000</v>
       </c>
@@ -42616,7 +44892,7 @@
         <v>1223351001740</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>2000</v>
       </c>
@@ -42642,7 +44918,7 @@
         <v>1230973005295</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>2000</v>
       </c>
@@ -42668,7 +44944,7 @@
         <v>1243996024132</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>2000</v>
       </c>
@@ -42694,7 +44970,7 @@
         <v>1235699057579</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>2000</v>
       </c>
@@ -42720,7 +44996,7 @@
         <v>1215075969696</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>2000</v>
       </c>
@@ -42746,7 +45022,7 @@
         <v>1211537003517</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>2000</v>
       </c>
@@ -45030,10 +47306,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45392,7 +47668,7 @@
         <v>2639137029648</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>3000</v>
       </c>
@@ -45418,7 +47694,7 @@
         <v>2603912115097</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -45444,7 +47720,7 @@
         <v>2619523048401</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>3000</v>
       </c>
@@ -45470,7 +47746,7 @@
         <v>2621382951736</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>3000</v>
       </c>
@@ -45496,7 +47772,7 @@
         <v>2617933034897</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>3000</v>
       </c>
@@ -45522,7 +47798,7 @@
         <v>2619769096375</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -45548,7 +47824,7 @@
         <v>2634546995163</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -45574,7 +47850,21 @@
         <v>2614221096039</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -45589,8 +47879,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>2.6221947000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>3000</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>3.999462849940541E-2</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>2.6532659000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>3000</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>1.2551822993316767E-3</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>2.6221947000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>3000</v>
       </c>
@@ -45615,8 +47939,24 @@
       <c r="H27" s="5">
         <v>2969446897507</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>3000</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>9.0227773485219067E-3</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>3.0681601000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>3000</v>
       </c>
@@ -45641,8 +47981,24 @@
       <c r="H28" s="5">
         <v>3019092082977</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>3000</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>2.5625021262647009E-3</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>2.6994173999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>3000</v>
       </c>
@@ -45667,8 +48023,24 @@
       <c r="H29" s="5">
         <v>2992826938629</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>3000</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>2.7403488848441663E-3</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>2.7065047999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -45693,8 +48065,24 @@
       <c r="H30" s="5">
         <v>3077146053314</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>3000</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>1.9134077860369094E-3</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>2.8164997000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -45719,8 +48107,24 @@
       <c r="H31" s="5">
         <v>3149744987488</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>3000</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>1.1882788593872513E-3</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>2.8660060999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>3000</v>
       </c>
@@ -45745,8 +48149,24 @@
       <c r="H32" s="5">
         <v>3027014017105</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>3000</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>5.2711926415607733E-3</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>2.9497589999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>3000</v>
       </c>
@@ -45771,8 +48191,24 @@
       <c r="H33" s="5">
         <v>3210562944412</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>3000</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>2.7177844567465859E-3</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>2.9377240000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>3000</v>
       </c>
@@ -45797,8 +48233,24 @@
       <c r="H34" s="5">
         <v>3036722898483</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>3000</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>4.5620909200668719E-2</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>3.1358196999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>3000</v>
       </c>
@@ -45823,8 +48275,24 @@
       <c r="H35" s="5">
         <v>2990483999252</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>3000</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>2.8157690758377979E-3</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>3.1235517999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>3000</v>
       </c>
@@ -45849,8 +48317,24 @@
       <c r="H36" s="5">
         <v>3208559989929</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>3000</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>1.7718543412983409E-3</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>3.1249702999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
@@ -45866,7 +48350,7 @@
         <v>3.0681601000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>3000</v>
       </c>
@@ -45892,7 +48376,7 @@
         <v>2724957942963</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>3000</v>
       </c>
@@ -45918,7 +48402,7 @@
         <v>2714643955231</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>3000</v>
       </c>
@@ -45944,7 +48428,7 @@
         <v>2689733028412</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>3000</v>
       </c>
@@ -45970,7 +48454,7 @@
         <v>2667062044144</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>3000</v>
       </c>
@@ -45996,7 +48480,7 @@
         <v>2680958032608</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>3000</v>
       </c>
@@ -46022,7 +48506,7 @@
         <v>2706953048706</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>3000</v>
       </c>
@@ -46048,7 +48532,7 @@
         <v>2664505004883</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>3000</v>
       </c>
@@ -46074,7 +48558,7 @@
         <v>2691991090775</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>3000</v>
       </c>
@@ -48358,10 +50842,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -48720,7 +51204,7 @@
         <v>4508025169373</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>4000</v>
       </c>
@@ -48746,7 +51230,7 @@
         <v>4512895107269</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>4000</v>
       </c>
@@ -48772,7 +51256,7 @@
         <v>4519689083099</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>4000</v>
       </c>
@@ -48798,7 +51282,7 @@
         <v>4537953853607</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>4000</v>
       </c>
@@ -48824,7 +51308,7 @@
         <v>4516879081726</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>4000</v>
       </c>
@@ -48850,7 +51334,7 @@
         <v>4529510974884</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>4000</v>
       </c>
@@ -48876,7 +51360,7 @@
         <v>4521839141846</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -48902,7 +51386,21 @@
         <v>4516245841980</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
@@ -48917,8 +51415,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>4.5262573000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>4000</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>4.0681992334037267E-3</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>4.4473705999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>4000</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>2.0293636238705197E-3</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>4.5262573000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>4000</v>
       </c>
@@ -48943,8 +51475,24 @@
       <c r="H27" s="5">
         <v>4998350143433</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>4000</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>5.3996990998573229E-3</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>4.9987777000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>4000</v>
       </c>
@@ -48969,8 +51517,24 @@
       <c r="H28" s="5">
         <v>5063059806824</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>4000</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>4.3511097076109981E-3</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>4.7895119000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>4000</v>
       </c>
@@ -48995,8 +51559,24 @@
       <c r="H29" s="5">
         <v>5068827152252</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>4000</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>3.1695627998721424E-3</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>4.7986727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>4000</v>
       </c>
@@ -49021,8 +51601,24 @@
       <c r="H30" s="5">
         <v>5052483081818</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>4000</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>1.8757924354789364E-3</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>4.9871919000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>4000</v>
       </c>
@@ -49047,8 +51643,24 @@
       <c r="H31" s="5">
         <v>4997044086456</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>4000</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>2.3623642231412533E-3</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>5.1206464999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>4000</v>
       </c>
@@ -49073,8 +51685,24 @@
       <c r="H32" s="5">
         <v>5007787227631</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>4000</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>4.0110344927185276E-3</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>5.2086167999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>4000</v>
       </c>
@@ -49099,8 +51727,24 @@
       <c r="H33" s="5">
         <v>4996951103210</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>4000</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>5.1637200916156908E-3</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>5.2305637000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>4000</v>
       </c>
@@ -49125,8 +51769,24 @@
       <c r="H34" s="5">
         <v>4900523185730</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>4000</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>4.0973911592079608E-3</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>5.3386515999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>4000</v>
       </c>
@@ -49151,8 +51811,24 @@
       <c r="H35" s="5">
         <v>4957786083221</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>4000</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>3.9169220089815982E-3</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>5.5216509999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>4000</v>
       </c>
@@ -49177,8 +51853,24 @@
       <c r="H36" s="5">
         <v>4944965839386</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>4000</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>5.531816904216713E-3</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>5.5659337999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
@@ -49194,7 +51886,7 @@
         <v>4.9987777000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>4000</v>
       </c>
@@ -49220,7 +51912,7 @@
         <v>4779775142670</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -49246,7 +51938,7 @@
         <v>4750563144684</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -49272,7 +51964,7 @@
         <v>4809747219086</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>4000</v>
       </c>
@@ -49298,7 +51990,7 @@
         <v>4800656795502</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -49324,7 +52016,7 @@
         <v>4798571109772</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>4000</v>
       </c>
@@ -49350,7 +52042,7 @@
         <v>4897489070892</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>4000</v>
       </c>
@@ -49376,7 +52068,7 @@
         <v>4762095928192</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>4000</v>
       </c>
@@ -49402,7 +52094,7 @@
         <v>4786276817322</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>4000</v>
       </c>
@@ -51689,7 +54381,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -52034,7 +54726,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J10"/>
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -52379,7 +55071,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J10"/>
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -52722,7 +55414,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J10"/>
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -53067,7 +55759,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J10"/>
+      <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -53430,10 +56122,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -53797,7 +56489,7 @@
         <v>61648000032</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>250</v>
       </c>
@@ -53823,7 +56515,7 @@
         <v>38056001067</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>250</v>
       </c>
@@ -53849,7 +56541,7 @@
         <v>39519999176</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>250</v>
       </c>
@@ -53875,7 +56567,7 @@
         <v>15080000274</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>250</v>
       </c>
@@ -53901,7 +56593,7 @@
         <v>29901999980</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>250</v>
       </c>
@@ -53927,7 +56619,7 @@
         <v>12070000172</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>250</v>
       </c>
@@ -53953,7 +56645,7 @@
         <v>49575999379</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>250</v>
       </c>
@@ -53979,7 +56671,21 @@
         <v>43650999665</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="24" spans="1:13">
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -53994,8 +56700,42 @@
         <f>SUM(G14:G23)/10/1000/1000</f>
         <v>3.3874499999999995E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J25">
+        <f>A1</f>
+        <v>250</v>
+      </c>
+      <c r="K25">
+        <f>B1</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(G1:G10)/10/1000/1000</f>
+        <v>5.8449087277827622E-3</v>
+      </c>
+      <c r="M25">
+        <f>SUM(G1:G10)/10/1000/1000</f>
+        <v>0.1193635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="J26">
+        <f>A14</f>
+        <v>250</v>
+      </c>
+      <c r="K26">
+        <f>B14</f>
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(G14:G23)/10/1000/1000</f>
+        <v>1.6971690849110405E-3</v>
+      </c>
+      <c r="M26">
+        <f>SUM(G14:G23)/10/1000/1000</f>
+        <v>3.3874499999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>250</v>
       </c>
@@ -54020,8 +56760,24 @@
       <c r="H27" s="5">
         <v>22001000121</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f>A27</f>
+        <v>250</v>
+      </c>
+      <c r="K27">
+        <f>B27</f>
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(G27:G36)/10/1000/1000</f>
+        <v>6.9947448122779172E-4</v>
+      </c>
+      <c r="M27">
+        <f>SUM(G27:G36)/10/1000/1000</f>
+        <v>2.2995900000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>250</v>
       </c>
@@ -54046,8 +56802,24 @@
       <c r="H28" s="5">
         <v>17851000652</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f>A40</f>
+        <v>250</v>
+      </c>
+      <c r="K28">
+        <f>B40</f>
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(G40:G49)/10/1000/1000</f>
+        <v>1.7518886982657061E-4</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G40:G49)/10/1000/1000</f>
+        <v>1.93803E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>250</v>
       </c>
@@ -54072,8 +56844,24 @@
       <c r="H29" s="5">
         <v>19981000572</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f>A53</f>
+        <v>250</v>
+      </c>
+      <c r="K29">
+        <f>B53</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(G53:G62)/10/1000/1000</f>
+        <v>3.3732170286274589E-4</v>
+      </c>
+      <c r="M29">
+        <f>SUM(G53:G62)/10/1000/1000</f>
+        <v>2.1649700000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>250</v>
       </c>
@@ -54098,8 +56886,24 @@
       <c r="H30" s="5">
         <v>20152999088</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f>A66</f>
+        <v>250</v>
+      </c>
+      <c r="K30">
+        <f>B66</f>
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f>STDEV(G66:G75)/10/1000/1000</f>
+        <v>2.4609887263275212E-4</v>
+      </c>
+      <c r="M30">
+        <f>SUM(G66:G75)/10/1000/1000</f>
+        <v>2.1896200000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>250</v>
       </c>
@@ -54124,8 +56928,24 @@
       <c r="H31" s="5">
         <v>28370000422</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f>A79</f>
+        <v>250</v>
+      </c>
+      <c r="K31">
+        <f>B79</f>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(G79:G88)/10/1000/1000</f>
+        <v>2.4477107422605588E-4</v>
+      </c>
+      <c r="M31">
+        <f>SUM(G79:G88)/10/1000/1000</f>
+        <v>2.1770100000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>250</v>
       </c>
@@ -54150,8 +56970,24 @@
       <c r="H32" s="5">
         <v>16629999503</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32">
+        <f>A92</f>
+        <v>250</v>
+      </c>
+      <c r="K32">
+        <f>B92</f>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f>STDEV(G92:G101)/10/1000/1000</f>
+        <v>2.0455870007843172E-4</v>
+      </c>
+      <c r="M32">
+        <f>SUM(G92:G101)/10/1000/1000</f>
+        <v>2.4088200000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>250</v>
       </c>
@@ -54176,8 +57012,24 @@
       <c r="H33" s="5">
         <v>16973000020</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="J33">
+        <f>A105</f>
+        <v>250</v>
+      </c>
+      <c r="K33">
+        <f>B105</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f>STDEV(G105:G114)/10/1000/1000</f>
+        <v>2.0908990331115147E-4</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G105:G114)/10/1000/1000</f>
+        <v>2.4355900000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>250</v>
       </c>
@@ -54202,8 +57054,24 @@
       <c r="H34" s="5">
         <v>29625000432</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="J34">
+        <f>A118</f>
+        <v>250</v>
+      </c>
+      <c r="K34">
+        <f>B118</f>
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <f>STDEV(G118:G127)/10/1000/1000</f>
+        <v>1.974606123874948E-4</v>
+      </c>
+      <c r="M34">
+        <f>SUM(G118:G127)/10/1000/1000</f>
+        <v>2.7741700000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>250</v>
       </c>
@@ -54228,8 +57096,24 @@
       <c r="H35" s="5">
         <v>38391001523</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="J35">
+        <f>A131</f>
+        <v>250</v>
+      </c>
+      <c r="K35">
+        <f>B131</f>
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(G131:G140)/10/1000/1000</f>
+        <v>3.4169360153993712E-4</v>
+      </c>
+      <c r="M35">
+        <f>SUM(G131:G140)/10/1000/1000</f>
+        <v>3.7448200000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>250</v>
       </c>
@@ -54254,8 +57138,24 @@
       <c r="H36" s="5">
         <v>19983999431</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="J36">
+        <f>A144</f>
+        <v>250</v>
+      </c>
+      <c r="K36">
+        <f>B144</f>
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(G144:G153)/10/1000/1000</f>
+        <v>1.1774562818494254E-3</v>
+      </c>
+      <c r="M36">
+        <f>SUM(G144:G153)/10/1000/1000</f>
+        <v>9.6288699999999991E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -54271,7 +57171,7 @@
         <v>2.2995900000000003E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>250</v>
       </c>
@@ -54297,7 +57197,7 @@
         <v>21506000310</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>250</v>
       </c>
@@ -54323,7 +57223,7 @@
         <v>19347999245</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>250</v>
       </c>
@@ -54349,7 +57249,7 @@
         <v>21482000127</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>250</v>
       </c>
@@ -54375,7 +57275,7 @@
         <v>16764000058</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>250</v>
       </c>
@@ -54401,7 +57301,7 @@
         <v>19743999466</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>250</v>
       </c>
@@ -54427,7 +57327,7 @@
         <v>19145999104</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>250</v>
       </c>
@@ -54453,7 +57353,7 @@
         <v>18332999200</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>250</v>
       </c>
@@ -54479,7 +57379,7 @@
         <v>16586000100</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>250</v>
       </c>
